--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43703,6 +43703,43 @@
         <v>8100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43740,6 +43740,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43777,6 +43777,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43814,6 +43814,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43851,6 +43851,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>8700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43886,6 +43886,43 @@
         <v>8700</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43923,6 +43923,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>18600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43958,6 +43958,41 @@
         <v>18600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>41500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43993,6 +43993,41 @@
         <v>41500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>5500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44028,6 +44028,41 @@
         <v>5500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44063,6 +44063,43 @@
         <v>1900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44100,6 +44100,43 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44137,6 +44137,76 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44207,6 +44207,78 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44279,6 +44279,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44316,6 +44316,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>6200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44351,6 +44351,41 @@
         <v>6200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44386,6 +44386,41 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44421,6 +44421,78 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="I1239" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44493,6 +44493,41 @@
         </is>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44528,6 +44528,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I1241" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1756"/>
+  <dimension ref="A1:I1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62590,6 +62590,41 @@
         </is>
       </c>
     </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>13100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1757"/>
+  <dimension ref="A1:I1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62625,6 +62625,41 @@
         <v>13100</v>
       </c>
     </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1758"/>
+  <dimension ref="A1:I1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62660,6 +62660,43 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="I1759" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1759"/>
+  <dimension ref="A1:I1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62697,6 +62697,41 @@
         </is>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1760"/>
+  <dimension ref="A1:I1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62732,6 +62732,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>5900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1761"/>
+  <dimension ref="A1:I1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62767,6 +62767,41 @@
         <v>5900</v>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1762"/>
+  <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62802,6 +62802,41 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1763"/>
+  <dimension ref="A1:I1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62837,6 +62837,43 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I1764" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1764"/>
+  <dimension ref="A1:I1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62874,6 +62874,41 @@
         </is>
       </c>
     </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1765"/>
+  <dimension ref="A1:I1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62909,6 +62909,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1766"/>
+  <dimension ref="A1:I1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62944,6 +62944,41 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1767"/>
+  <dimension ref="A1:I1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62979,6 +62979,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1768"/>
+  <dimension ref="A1:I1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63014,6 +63014,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>119800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1769"/>
+  <dimension ref="A1:I1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63049,6 +63049,41 @@
         <v>119800</v>
       </c>
     </row>
+    <row r="1770">
+      <c r="A1770" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1770" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1770" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>24400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7439.xlsx
+++ b/data/7439.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1770"/>
+  <dimension ref="A1:I1771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63084,6 +63084,41 @@
         <v>24400</v>
       </c>
     </row>
+    <row r="1771">
+      <c r="A1771" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>7439</t>
+        </is>
+      </c>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>TECGUAN</t>
+        </is>
+      </c>
+      <c r="E1771" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>1200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
